--- a/page/optum_stream_full.xlsx
+++ b/page/optum_stream_full.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr hidePivotFieldList="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Xampp\htdocs\Alphonso\page\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="6795" windowHeight="2130" tabRatio="500" firstSheet="8" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="6795" windowHeight="2130" tabRatio="500" firstSheet="8" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="OS Browser Usage" sheetId="7" r:id="rId1"/>
@@ -22,12 +17,11 @@
     <sheet name="View Time Data" sheetId="10" r:id="rId8"/>
     <sheet name="Page View Data" sheetId="11" r:id="rId9"/>
     <sheet name="User Pages Viewed" sheetId="12" r:id="rId10"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId11"/>
-    <sheet name="Engagement" sheetId="15" r:id="rId12"/>
+    <sheet name="Engagement" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId13"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -14069,7 +14063,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -23342,7 +23336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -23377,7 +23371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -23554,7 +23548,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -49019,21 +49013,9 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
@@ -100518,7 +100500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
